--- a/public/resources/Users_sample.xlsx
+++ b/public/resources/Users_sample.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="kywvi4v+nbopUjy3UqWjmj6m0MY+nY8SLixs3TjJXoc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="WU1i6FzhxjyFOXOAxG5aJY3gacVi8hCOYIXL7tzblfA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>firstname</t>
   </si>
@@ -57,9 +57,6 @@
     <t>mobile</t>
   </si>
   <si>
-    <t>telephone</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -133,43 +130,13 @@
   </si>
   <si>
     <t>companycity_invoice</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>resre2</t>
-  </si>
-  <si>
-    <t>eset@gmail.com</t>
-  </si>
-  <si>
-    <t>dgdtg</t>
-  </si>
-  <si>
-    <t>fgdf</t>
-  </si>
-  <si>
-    <t>dfbcbdbd</t>
-  </si>
-  <si>
-    <t>srg</t>
-  </si>
-  <si>
-    <t>xcgb</t>
-  </si>
-  <si>
-    <t>srth</t>
-  </si>
-  <si>
-    <t>thsr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -185,15 +152,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -222,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -238,9 +196,6 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -472,30 +427,30 @@
     <col customWidth="1" min="12" max="12" width="30.14"/>
     <col customWidth="1" min="13" max="13" width="14.71"/>
     <col customWidth="1" min="14" max="14" width="16.14"/>
-    <col customWidth="1" min="15" max="16" width="13.71"/>
-    <col customWidth="1" min="17" max="17" width="15.57"/>
-    <col customWidth="1" min="18" max="19" width="13.71"/>
-    <col customWidth="1" min="20" max="20" width="15.43"/>
-    <col customWidth="1" min="21" max="21" width="17.71"/>
-    <col customWidth="1" min="22" max="22" width="18.29"/>
-    <col customWidth="1" min="23" max="23" width="20.57"/>
-    <col customWidth="1" min="24" max="24" width="19.29"/>
-    <col customWidth="1" min="25" max="25" width="22.29"/>
-    <col customWidth="1" min="26" max="26" width="24.71"/>
-    <col customWidth="1" min="27" max="27" width="20.71"/>
-    <col customWidth="1" min="28" max="28" width="21.29"/>
-    <col customWidth="1" min="29" max="29" width="20.14"/>
-    <col customWidth="1" min="30" max="30" width="17.86"/>
-    <col customWidth="1" min="31" max="32" width="20.0"/>
-    <col customWidth="1" min="33" max="33" width="12.29"/>
-    <col customWidth="1" min="34" max="34" width="24.14"/>
-    <col customWidth="1" min="35" max="35" width="26.14"/>
-    <col customWidth="1" min="36" max="36" width="23.14"/>
-    <col customWidth="1" min="37" max="37" width="22.0"/>
-    <col customWidth="1" min="38" max="38" width="24.71"/>
-    <col customWidth="1" min="39" max="39" width="25.57"/>
-    <col customWidth="1" min="40" max="40" width="25.29"/>
-    <col customWidth="1" min="41" max="41" width="22.0"/>
+    <col customWidth="1" min="15" max="15" width="13.71"/>
+    <col customWidth="1" min="16" max="16" width="15.57"/>
+    <col customWidth="1" min="17" max="18" width="13.71"/>
+    <col customWidth="1" min="19" max="19" width="15.43"/>
+    <col customWidth="1" min="20" max="20" width="17.71"/>
+    <col customWidth="1" min="21" max="21" width="18.29"/>
+    <col customWidth="1" min="22" max="22" width="20.57"/>
+    <col customWidth="1" min="23" max="23" width="19.29"/>
+    <col customWidth="1" min="24" max="24" width="22.29"/>
+    <col customWidth="1" min="25" max="25" width="24.71"/>
+    <col customWidth="1" min="26" max="26" width="20.71"/>
+    <col customWidth="1" min="27" max="27" width="21.29"/>
+    <col customWidth="1" min="28" max="28" width="20.14"/>
+    <col customWidth="1" min="29" max="29" width="17.86"/>
+    <col customWidth="1" min="30" max="31" width="20.0"/>
+    <col customWidth="1" min="32" max="32" width="12.29"/>
+    <col customWidth="1" min="33" max="33" width="24.14"/>
+    <col customWidth="1" min="34" max="34" width="26.14"/>
+    <col customWidth="1" min="35" max="35" width="23.14"/>
+    <col customWidth="1" min="36" max="36" width="22.0"/>
+    <col customWidth="1" min="37" max="37" width="24.71"/>
+    <col customWidth="1" min="38" max="38" width="25.57"/>
+    <col customWidth="1" min="39" max="39" width="25.29"/>
+    <col customWidth="1" min="40" max="40" width="22.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -584,22 +539,22 @@
       <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AH1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="AJ1" s="4" t="s">
@@ -609,59 +564,16 @@
         <v>35</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>36</v>
       </c>
       <c r="AN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="5">
-        <v>222.0</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="U2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
+    <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1"/>
@@ -1659,7 +1571,6 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.7480314960629921" footer="0.0" header="0.0" left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921"/>
